--- a/Country_Data/Destination_France-2019.xlsx
+++ b/Country_Data/Destination_France-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Easy_Jet\Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78470223-BB2F-43D3-8E02-B2CDB56FEECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F91B5-AC7D-4CE8-BE92-10465E049E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3585" yWindow="6885" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,38 @@
     <t>Destination: France</t>
   </si>
   <si>
-    <t>Information: https://www.entreprises.gouv.fr/files/files/directions_services/etudes-et-statistiques/4p-DGE/2018-07-4p-N84-EVE-version-anglaise.pdf</t>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Belgium,Luxembourg</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrivals of foreign tourists in France by region of residence </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FOR 2017)</t>
+    </r>
+  </si>
+  <si>
+    <t>Information: https://www.entreprises.gouv.fr/files/files/en-pratique/etudes-et-statistiques/4pages/2019-4pn88-eve-english-version.pdfDGE/2018-07-4p-N84-EVE-version-anglaise.pdf</t>
   </si>
   <si>
     <r>
@@ -118,7 +149,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2017</t>
+      <t>2018</t>
     </r>
     <r>
       <rPr>
@@ -139,38 +170,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2019 year is the 2017 data</t>
-    </r>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Belgium,Luxembourg</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
-    <t>North Africa</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arrivals of foreign tourists in France by region of residence </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FOR 2017)</t>
+      <t>2019 year is the 2018 data</t>
     </r>
   </si>
 </sst>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -319,6 +319,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -333,12 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +687,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="H8" sqref="H8:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -703,92 +700,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -824,13 +821,14 @@
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22">
-        <v>68300000</v>
+      <c r="B8" s="9">
+        <v>70000000</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="22">
-        <v>428200000</v>
+      <c r="E8" s="17">
+        <f>439.7*10^6</f>
+        <v>439700000</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
@@ -844,13 +842,14 @@
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23">
-        <v>12700000</v>
+      <c r="B9" s="9">
+        <v>13000000</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="23">
-        <v>82800000</v>
+      <c r="E9" s="17">
+        <f>84.1*10^6</f>
+        <v>84100000</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -864,13 +863,14 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="23">
-        <v>11800000</v>
+      <c r="B10" s="9">
+        <v>12300000</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="23">
-        <v>77900000</v>
+      <c r="E10" s="17">
+        <f>80.9*10^6</f>
+        <v>80900000</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -882,20 +882,21 @@
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="23">
-        <v>11300000</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="9">
+        <v>11600000</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="23">
-        <v>68200000</v>
+      <c r="E11" s="17">
+        <f>71.7*10^6</f>
+        <v>71700000</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -904,18 +905,19 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23">
-        <v>7000000</v>
+      <c r="B12" s="9">
+        <v>6800000</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="23">
-        <v>37100000</v>
+      <c r="E12" s="17">
+        <f>37.5*10^6</f>
+        <v>37500000</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -924,13 +926,14 @@
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23">
-        <v>6800000</v>
+      <c r="B13" s="9">
+        <v>6700000</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="23">
-        <v>34100000</v>
+      <c r="E13" s="17">
+        <f>33.7*10^6</f>
+        <v>33700000</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -944,18 +947,19 @@
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="23">
-        <v>6700000</v>
+      <c r="B14" s="9">
+        <v>7000000</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="23">
-        <v>39000000</v>
+      <c r="E14" s="17">
+        <f>41.6*10^6</f>
+        <v>41600000</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -964,18 +968,19 @@
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="23">
-        <v>4400000</v>
+      <c r="B15" s="9">
+        <v>4700000</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="23">
-        <v>30700000</v>
+      <c r="E15" s="17">
+        <f>32.6*10^6</f>
+        <v>32600000</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -984,38 +989,40 @@
       <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="23">
-        <v>800000</v>
+      <c r="B16" s="12">
+        <v>900000</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="23">
-        <v>6900000</v>
+      <c r="E16" s="17">
+        <f>7.5*10^6</f>
+        <v>7500000</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="23">
-        <v>8700000</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="9">
+        <v>9000000</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="23">
-        <v>68900000</v>
+      <c r="E17" s="17">
+        <f>69.6*10^6</f>
+        <v>69600000</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1024,18 +1031,19 @@
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23">
-        <v>4400000</v>
+      <c r="B18" s="9">
+        <v>4500000</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="23">
-        <v>35200000</v>
+      <c r="E18" s="17">
+        <f>34.7*10^6</f>
+        <v>34700000</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1044,18 +1052,19 @@
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="23">
-        <v>1000000</v>
+      <c r="B19" s="9">
+        <v>1200000</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="23">
-        <v>9900000</v>
+      <c r="E19" s="17">
+        <f>11.8*10^6</f>
+        <v>11800000</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1064,18 +1073,19 @@
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="23">
-        <v>1200000</v>
+      <c r="B20" s="12">
+        <v>1100000</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="23">
-        <v>9300000</v>
+      <c r="E20" s="17">
+        <f>8.4*10^6</f>
+        <v>8400000</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -1084,18 +1094,19 @@
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="23">
-        <v>5900000</v>
+      <c r="B21" s="9">
+        <v>6400000</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="23">
-        <v>40500000</v>
+      <c r="E21" s="17">
+        <f>41.3*10^6</f>
+        <v>41300000</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -1104,13 +1115,14 @@
       <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="23">
-        <v>2100000</v>
+      <c r="B22" s="9">
+        <v>2200000</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="23">
-        <v>11400000</v>
+      <c r="E22" s="17">
+        <f>11.9*10^6</f>
+        <v>11900000</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
@@ -1122,20 +1134,21 @@
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="23">
-        <v>1300000</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1400000</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="23">
-        <v>11500000</v>
+      <c r="E23" s="17">
+        <f>11.3*10^6</f>
+        <v>11300000</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -1144,18 +1157,19 @@
       <c r="A24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23">
-        <v>500000</v>
+      <c r="B24" s="9">
+        <v>600000</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="23">
-        <v>3600000</v>
+      <c r="E24" s="17">
+        <f>4*10^6</f>
+        <v>4000000</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="H24">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -1164,18 +1178,19 @@
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="9">
         <v>500000</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="23">
-        <v>3200000</v>
+      <c r="E25" s="17">
+        <f>3.5*10^6</f>
+        <v>3500000</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -1184,38 +1199,40 @@
       <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="23">
-        <v>2800000</v>
+      <c r="B26" s="9">
+        <v>2900000</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="23">
-        <v>36700000</v>
+      <c r="E26" s="17">
+        <f>37.5*10^6</f>
+        <v>37500000</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="23">
-        <v>2000000</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2100000</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="23">
-        <v>25100000</v>
+      <c r="E27" s="17">
+        <f>26.2*10^6</f>
+        <v>26200000</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -1224,33 +1241,35 @@
       <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="9">
         <v>1100000</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="23">
-        <v>8600000</v>
+      <c r="E28" s="17">
+        <f>8.2*10^6</f>
+        <v>8199999.9999999991</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="23">
-        <v>86900000</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="12">
+        <v>89300000</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="23">
-        <v>583000000</v>
+      <c r="E29" s="17">
+        <f>596.8*10^6</f>
+        <v>596800000</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
@@ -1310,7 +1329,6 @@
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
       <c r="E34" s="9"/>
@@ -1322,7 +1340,6 @@
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35" s="9"/>
@@ -1334,7 +1351,6 @@
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="9"/>
@@ -1346,7 +1362,6 @@
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="9"/>
@@ -1358,7 +1373,6 @@
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="9"/>
@@ -1370,7 +1384,6 @@
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="9"/>
@@ -1382,7 +1395,6 @@
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
       <c r="E40" s="9"/>
@@ -1394,7 +1406,6 @@
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
       <c r="E41" s="9"/>
@@ -1406,7 +1417,6 @@
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="12"/>
@@ -1418,7 +1428,6 @@
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
       <c r="E43" s="9"/>
@@ -1430,7 +1439,6 @@
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
       <c r="E44" s="9"/>
@@ -1442,7 +1450,6 @@
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
       <c r="E45" s="9"/>
@@ -1454,7 +1461,6 @@
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
       <c r="E46" s="12"/>
@@ -1466,7 +1472,6 @@
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
@@ -1478,7 +1483,6 @@
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="9"/>
@@ -1490,7 +1494,6 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9"/>
@@ -1502,7 +1505,6 @@
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
@@ -1514,7 +1516,6 @@
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
@@ -1526,7 +1527,6 @@
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9"/>
@@ -1538,7 +1538,6 @@
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
@@ -1550,7 +1549,6 @@
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
       <c r="E54" s="9"/>
@@ -1562,7 +1560,6 @@
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13"/>
       <c r="E55" s="12"/>
@@ -1681,16 +1678,16 @@
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1783,7 +1780,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>68.2</v>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>68.900000000000006</v>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>11.5</v>
@@ -2087,7 +2084,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>25.1</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>583</v>
